--- a/data/trans_orig/Q5402-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5402-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D22C2F5D-5B8F-4AFE-90A7-0D8DD1D23FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B4445C1-DE6C-482E-A9B7-DA4223CE3195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A450AA92-BD96-45F7-83D7-9166683F474D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{57F88936-D4AA-4C87-9F1A-9E8C4E32FACB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="598">
   <si>
     <t>Población según si son capaces de prepararse la comida en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -92,7 +92,7 @@
     <t>3,94%</t>
   </si>
   <si>
-    <t>11,89%</t>
+    <t>12,37%</t>
   </si>
   <si>
     <t>Con alguna ayuda</t>
@@ -101,7 +101,7 @@
     <t>7,7%</t>
   </si>
   <si>
-    <t>23,81%</t>
+    <t>23,79%</t>
   </si>
   <si>
     <t>8,1%</t>
@@ -113,10 +113,10 @@
     <t>7,89%</t>
   </si>
   <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
   </si>
   <si>
     <t>Sin ayuda</t>
@@ -125,7 +125,7 @@
     <t>92,3%</t>
   </si>
   <si>
-    <t>76,19%</t>
+    <t>76,21%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -143,10 +143,10 @@
     <t>88,16%</t>
   </si>
   <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
   </si>
   <si>
     <t>100%</t>
@@ -158,10 +158,10 @@
     <t>8,44%</t>
   </si>
   <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
   </si>
   <si>
     <t>5,54%</t>
@@ -176,1660 +176,1663 @@
     <t>6,74%</t>
   </si>
   <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
   </si>
   <si>
     <t>12,49%</t>
   </si>
   <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
     <t>7,09%</t>
   </si>
   <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si son capaces de prepararse la comida en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>70,61%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>Población según si son capaces de prepararse la comida en 2015 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
   </si>
   <si>
     <t>11,08%</t>
   </si>
   <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
   </si>
   <si>
     <t>7,91%</t>
   </si>
   <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>Población según si son capaces de prepararse la comida en 2023 (Tasa respuesta: 31,24%)</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>62,24%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
   </si>
   <si>
     <t>12,18%</t>
   </si>
   <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si son capaces de prepararse la comida en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>Población según si son capaces de prepararse la comida en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>Población según si son capaces de prepararse la comida en 2023 (Tasa respuesta: 31,24%)</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
   </si>
   <si>
     <t>85,1%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
   </si>
 </sst>
 </file>
@@ -2241,7 +2244,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C597A3D-9B54-4E82-A75B-18AA65D4E24C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{837A5DFF-C0F5-4D90-B866-0F6AE0A5A290}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2700,7 +2703,7 @@
         <v>184</v>
       </c>
       <c r="N10" s="7">
-        <v>180672</v>
+        <v>180673</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>62</v>
@@ -2751,7 +2754,7 @@
         <v>217</v>
       </c>
       <c r="N11" s="7">
-        <v>213825</v>
+        <v>213826</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -3019,7 +3022,7 @@
         <v>101</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>102</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3034,13 +3037,13 @@
         <v>11653</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -3049,13 +3052,13 @@
         <v>8331</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M17" s="7">
         <v>19</v>
@@ -3064,13 +3067,13 @@
         <v>19985</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3085,13 +3088,13 @@
         <v>89800</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H18" s="7">
         <v>125</v>
@@ -3100,10 +3103,10 @@
         <v>119849</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>116</v>
@@ -3195,7 +3198,7 @@
         <v>122</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -3204,13 +3207,13 @@
         <v>12026</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M20" s="7">
         <v>17</v>
@@ -3219,10 +3222,10 @@
         <v>16993</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>128</v>
@@ -3246,7 +3249,7 @@
         <v>130</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>131</v>
+        <v>17</v>
       </c>
       <c r="H21" s="7">
         <v>17</v>
@@ -3255,13 +3258,13 @@
         <v>18673</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M21" s="7">
         <v>29</v>
@@ -3270,13 +3273,13 @@
         <v>28769</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3291,13 +3294,13 @@
         <v>122154</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H22" s="7">
         <v>172</v>
@@ -3306,13 +3309,13 @@
         <v>178078</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M22" s="7">
         <v>310</v>
@@ -3321,13 +3324,13 @@
         <v>300234</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3395,13 +3398,13 @@
         <v>26160</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H24" s="7">
         <v>34</v>
@@ -3410,13 +3413,13 @@
         <v>36969</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M24" s="7">
         <v>62</v>
@@ -3425,13 +3428,13 @@
         <v>63129</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3446,13 +3449,13 @@
         <v>47117</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H25" s="7">
         <v>45</v>
@@ -3461,13 +3464,13 @@
         <v>48760</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M25" s="7">
         <v>95</v>
@@ -3476,10 +3479,10 @@
         <v>95877</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>162</v>
@@ -3503,7 +3506,7 @@
         <v>164</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>59</v>
+        <v>165</v>
       </c>
       <c r="H26" s="7">
         <v>582</v>
@@ -3512,13 +3515,13 @@
         <v>591113</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M26" s="7">
         <v>1027</v>
@@ -3527,13 +3530,13 @@
         <v>1020303</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3589,7 +3592,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -3610,7 +3613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02C4827B-1C3A-476E-ACD8-51AB58A47E89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7C1389-2AB7-44E2-86D1-DF7CBB158842}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3627,7 +3630,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3734,13 +3737,13 @@
         <v>1931</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -3749,13 +3752,13 @@
         <v>3476</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -3764,7 +3767,7 @@
         <v>5406</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>178</v>
+        <v>107</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>179</v>
@@ -4060,10 +4063,10 @@
         <v>216</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M10" s="7">
         <v>196</v>
@@ -4072,13 +4075,13 @@
         <v>213344</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4146,13 +4149,13 @@
         <v>18558</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H12" s="7">
         <v>22</v>
@@ -4161,13 +4164,13 @@
         <v>25026</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M12" s="7">
         <v>39</v>
@@ -4176,13 +4179,13 @@
         <v>43585</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4197,7 +4200,7 @@
         <v>19675</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>111</v>
+        <v>230</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>231</v>
@@ -4421,10 +4424,10 @@
         <v>259</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="M17" s="7">
         <v>27</v>
@@ -4433,13 +4436,13 @@
         <v>28991</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4454,13 +4457,13 @@
         <v>81001</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="H18" s="7">
         <v>97</v>
@@ -4469,13 +4472,13 @@
         <v>105657</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M18" s="7">
         <v>168</v>
@@ -4558,7 +4561,7 @@
         <v>13338</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>273</v>
@@ -4767,10 +4770,10 @@
         <v>297</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="H24" s="7">
         <v>68</v>
@@ -4779,13 +4782,13 @@
         <v>75359</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="M24" s="7">
         <v>117</v>
@@ -4794,13 +4797,13 @@
         <v>130308</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4815,13 +4818,13 @@
         <v>65740</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="H25" s="7">
         <v>71</v>
@@ -4830,13 +4833,13 @@
         <v>76193</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="M25" s="7">
         <v>128</v>
@@ -4845,13 +4848,13 @@
         <v>141933</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4866,13 +4869,13 @@
         <v>438949</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="H26" s="7">
         <v>555</v>
@@ -4881,13 +4884,13 @@
         <v>591423</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="M26" s="7">
         <v>953</v>
@@ -4896,13 +4899,13 @@
         <v>1030372</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4958,7 +4961,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -4979,7 +4982,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2C2AB5-5F90-43FC-8460-68933FD8F737}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{828CA84C-2AAA-4C89-9965-D649EC2890CB}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4996,7 +4999,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5103,13 +5106,13 @@
         <v>3562</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -5118,13 +5121,13 @@
         <v>4360</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -5133,13 +5136,13 @@
         <v>7922</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5154,13 +5157,13 @@
         <v>2721</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -5169,13 +5172,13 @@
         <v>3056</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -5184,13 +5187,13 @@
         <v>5777</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5205,13 +5208,13 @@
         <v>15405</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="H6" s="7">
         <v>16</v>
@@ -5220,13 +5223,13 @@
         <v>16023</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>348</v>
       </c>
       <c r="M6" s="7">
         <v>33</v>
@@ -5235,13 +5238,13 @@
         <v>31428</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5309,13 +5312,13 @@
         <v>10453</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="H8" s="7">
         <v>9</v>
@@ -5324,13 +5327,13 @@
         <v>10348</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="M8" s="7">
         <v>21</v>
@@ -5342,7 +5345,7 @@
         <v>255</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>133</v>
+        <v>356</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>357</v>
@@ -5360,13 +5363,13 @@
         <v>5908</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>110</v>
+        <v>358</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H9" s="7">
         <v>12</v>
@@ -5375,13 +5378,13 @@
         <v>13855</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>110</v>
+        <v>358</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M9" s="7">
         <v>19</v>
@@ -5390,13 +5393,13 @@
         <v>19763</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>80</v>
+        <v>365</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5411,13 +5414,13 @@
         <v>98685</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="H10" s="7">
         <v>114</v>
@@ -5426,13 +5429,13 @@
         <v>125748</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="M10" s="7">
         <v>219</v>
@@ -5441,13 +5444,13 @@
         <v>224433</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5515,13 +5518,13 @@
         <v>12018</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -5530,13 +5533,13 @@
         <v>10642</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>376</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M12" s="7">
         <v>21</v>
@@ -5545,10 +5548,10 @@
         <v>22660</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>380</v>
+        <v>130</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>381</v>
@@ -5572,7 +5575,7 @@
         <v>41</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
@@ -5584,10 +5587,10 @@
         <v>383</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>385</v>
       </c>
       <c r="M13" s="7">
         <v>32</v>
@@ -5596,13 +5599,13 @@
         <v>34138</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5617,13 +5620,13 @@
         <v>138616</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>391</v>
       </c>
       <c r="H14" s="7">
         <v>159</v>
@@ -5632,13 +5635,13 @@
         <v>188690</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>394</v>
       </c>
       <c r="M14" s="7">
         <v>304</v>
@@ -5647,13 +5650,13 @@
         <v>327306</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5721,13 +5724,13 @@
         <v>4335</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>400</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -5739,10 +5742,10 @@
         <v>277</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -5751,13 +5754,13 @@
         <v>14591</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5772,13 +5775,13 @@
         <v>10962</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>406</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -5793,7 +5796,7 @@
         <v>275</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="M17" s="7">
         <v>20</v>
@@ -5802,13 +5805,13 @@
         <v>22148</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5823,13 +5826,13 @@
         <v>99738</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>413</v>
       </c>
       <c r="H18" s="7">
         <v>102</v>
@@ -5838,13 +5841,13 @@
         <v>121153</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>416</v>
       </c>
       <c r="M18" s="7">
         <v>199</v>
@@ -5853,13 +5856,13 @@
         <v>220892</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>213</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5927,13 +5930,13 @@
         <v>4983</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>421</v>
       </c>
       <c r="H20" s="7">
         <v>10</v>
@@ -5945,10 +5948,10 @@
         <v>203</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>423</v>
       </c>
       <c r="M20" s="7">
         <v>15</v>
@@ -5957,13 +5960,13 @@
         <v>18868</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5978,13 +5981,13 @@
         <v>13881</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>428</v>
-      </c>
       <c r="G21" s="7" t="s">
-        <v>429</v>
+        <v>68</v>
       </c>
       <c r="H21" s="7">
         <v>16</v>
@@ -5993,13 +5996,13 @@
         <v>23211</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>430</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>432</v>
       </c>
       <c r="M21" s="7">
         <v>32</v>
@@ -6008,13 +6011,13 @@
         <v>37093</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6029,13 +6032,13 @@
         <v>155754</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>437</v>
       </c>
       <c r="H22" s="7">
         <v>172</v>
@@ -6044,13 +6047,13 @@
         <v>205685</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>440</v>
       </c>
       <c r="M22" s="7">
         <v>341</v>
@@ -6059,13 +6062,13 @@
         <v>361440</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6133,13 +6136,13 @@
         <v>35351</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H24" s="7">
         <v>37</v>
@@ -6148,10 +6151,10 @@
         <v>49491</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>447</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>53</v>
@@ -6163,13 +6166,13 @@
         <v>84842</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>448</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6184,13 +6187,13 @@
         <v>47779</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>451</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>452</v>
       </c>
       <c r="H25" s="7">
         <v>55</v>
@@ -6199,13 +6202,13 @@
         <v>71140</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>454</v>
-      </c>
       <c r="L25" s="7" t="s">
-        <v>178</v>
+        <v>107</v>
       </c>
       <c r="M25" s="7">
         <v>109</v>
@@ -6214,13 +6217,13 @@
         <v>118919</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6235,13 +6238,13 @@
         <v>508198</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>459</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>460</v>
       </c>
       <c r="H26" s="7">
         <v>563</v>
@@ -6250,13 +6253,13 @@
         <v>657300</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>462</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>463</v>
       </c>
       <c r="M26" s="7">
         <v>1096</v>
@@ -6265,13 +6268,13 @@
         <v>1165498</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>465</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6327,7 +6330,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -6348,7 +6351,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D1B2B6-1817-4F89-B58E-ECCB4E7D1605}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D65D4EB5-AFD0-475B-ACBC-967CD15E0AAA}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6365,7 +6368,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6472,13 +6475,13 @@
         <v>1897</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>469</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>470</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
@@ -6487,10 +6490,10 @@
         <v>4974</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>451</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>472</v>
@@ -6505,10 +6508,10 @@
         <v>473</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>474</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6523,10 +6526,10 @@
         <v>6804</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>476</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>477</v>
@@ -6541,10 +6544,10 @@
         <v>478</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M5" s="7">
         <v>30</v>
@@ -6553,13 +6556,13 @@
         <v>14618</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6574,13 +6577,13 @@
         <v>20963</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H6" s="7">
         <v>79</v>
@@ -6589,13 +6592,13 @@
         <v>32632</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>365</v>
+        <v>489</v>
       </c>
       <c r="M6" s="7">
         <v>112</v>
@@ -6604,13 +6607,13 @@
         <v>53595</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6678,13 +6681,13 @@
         <v>15414</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="H8" s="7">
         <v>41</v>
@@ -6693,13 +6696,13 @@
         <v>17643</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>494</v>
+        <v>131</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M8" s="7">
         <v>68</v>
@@ -6708,13 +6711,13 @@
         <v>33056</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6729,13 +6732,13 @@
         <v>15155</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="H9" s="7">
         <v>53</v>
@@ -6744,13 +6747,13 @@
         <v>22661</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M9" s="7">
         <v>80</v>
@@ -6759,13 +6762,13 @@
         <v>37816</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6780,13 +6783,13 @@
         <v>94408</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H10" s="7">
         <v>240</v>
@@ -6795,13 +6798,13 @@
         <v>106915</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M10" s="7">
         <v>392</v>
@@ -6810,13 +6813,13 @@
         <v>201323</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6884,13 +6887,13 @@
         <v>13204</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H12" s="7">
         <v>42</v>
@@ -6899,13 +6902,13 @@
         <v>23187</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>434</v>
+        <v>520</v>
       </c>
       <c r="M12" s="7">
         <v>66</v>
@@ -6914,13 +6917,13 @@
         <v>36391</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>78</v>
+        <v>420</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>519</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6935,7 +6938,7 @@
         <v>17491</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>520</v>
+        <v>162</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>521</v>
@@ -6965,13 +6968,13 @@
         <v>52445</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>527</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7090,13 +7093,13 @@
         <v>7087</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>537</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>382</v>
+        <v>75</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -7105,7 +7108,7 @@
         <v>13675</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>376</v>
+        <v>82</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>538</v>
@@ -7144,10 +7147,10 @@
         <v>543</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>544</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>545</v>
       </c>
       <c r="H17" s="7">
         <v>24</v>
@@ -7156,13 +7159,13 @@
         <v>13804</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>546</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>547</v>
       </c>
       <c r="M17" s="7">
         <v>35</v>
@@ -7171,10 +7174,10 @@
         <v>22459</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>548</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>549</v>
@@ -7207,13 +7210,13 @@
         <v>253635</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>317</v>
+        <v>553</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="M18" s="7">
         <v>418</v>
@@ -7222,13 +7225,13 @@
         <v>385128</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>554</v>
+        <v>92</v>
       </c>
       <c r="P18" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>555</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7296,13 +7299,13 @@
         <v>13883</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>558</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>559</v>
       </c>
       <c r="H20" s="7">
         <v>36</v>
@@ -7311,13 +7314,13 @@
         <v>24157</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>560</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>562</v>
       </c>
       <c r="M20" s="7">
         <v>58</v>
@@ -7326,13 +7329,13 @@
         <v>38040</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>313</v>
+        <v>562</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7347,13 +7350,13 @@
         <v>19288</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>564</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>565</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>566</v>
       </c>
       <c r="H21" s="7">
         <v>61</v>
@@ -7362,13 +7365,13 @@
         <v>37697</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>157</v>
+        <v>565</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>156</v>
+        <v>566</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>567</v>
+        <v>527</v>
       </c>
       <c r="M21" s="7">
         <v>90</v>
@@ -7377,13 +7380,13 @@
         <v>56985</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>568</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7398,13 +7401,13 @@
         <v>185625</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>571</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>572</v>
       </c>
       <c r="H22" s="7">
         <v>427</v>
@@ -7413,13 +7416,13 @@
         <v>247699</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>573</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>574</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M22" s="7">
         <v>701</v>
@@ -7502,13 +7505,13 @@
         <v>51485</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>577</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>160</v>
+        <v>237</v>
       </c>
       <c r="H24" s="7">
         <v>150</v>
@@ -7535,10 +7538,10 @@
         <v>255</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>581</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7556,10 +7559,10 @@
         <v>582</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>583</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H25" s="7">
         <v>223</v>
@@ -7568,13 +7571,13 @@
         <v>116931</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>585</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>586</v>
       </c>
       <c r="M25" s="7">
         <v>325</v>
@@ -7583,13 +7586,13 @@
         <v>184323</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>588</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7604,13 +7607,13 @@
         <v>575640</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>591</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>592</v>
       </c>
       <c r="H26" s="7">
         <v>1334</v>
@@ -7619,13 +7622,13 @@
         <v>825636</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>593</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>594</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M26" s="7">
         <v>2170</v>
@@ -7637,10 +7640,10 @@
         <v>595</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>289</v>
+        <v>596</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7696,7 +7699,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5402-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5402-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B4445C1-DE6C-482E-A9B7-DA4223CE3195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{740F7229-E0E8-4359-A82C-0A102E7D6931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{57F88936-D4AA-4C87-9F1A-9E8C4E32FACB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{14BF6070-7A57-4CDF-ADB3-A60C3CAD269D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="599">
   <si>
     <t>Población según si son capaces de prepararse la comida en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No puede</t>
@@ -86,13 +86,13 @@
     <t>8,22%</t>
   </si>
   <si>
-    <t>27,68%</t>
+    <t>27,34%</t>
   </si>
   <si>
     <t>3,94%</t>
   </si>
   <si>
-    <t>12,37%</t>
+    <t>11,92%</t>
   </si>
   <si>
     <t>Con alguna ayuda</t>
@@ -101,13 +101,13 @@
     <t>7,7%</t>
   </si>
   <si>
-    <t>23,79%</t>
+    <t>23,83%</t>
   </si>
   <si>
     <t>8,1%</t>
   </si>
   <si>
-    <t>24,34%</t>
+    <t>24,18%</t>
   </si>
   <si>
     <t>7,89%</t>
@@ -116,7 +116,7 @@
     <t>2,01%</t>
   </si>
   <si>
-    <t>19,15%</t>
+    <t>17,58%</t>
   </si>
   <si>
     <t>Sin ayuda</t>
@@ -125,7 +125,7 @@
     <t>92,3%</t>
   </si>
   <si>
-    <t>76,21%</t>
+    <t>76,17%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -134,1651 +134,1654 @@
     <t>83,69%</t>
   </si>
   <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
   </si>
   <si>
     <t>88,16%</t>
   </si>
   <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>8,44%</t>
   </si>
   <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
   </si>
   <si>
     <t>5,54%</t>
   </si>
   <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
   </si>
   <si>
     <t>6,74%</t>
   </si>
   <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
   </si>
   <si>
     <t>12,49%</t>
   </si>
   <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
   </si>
   <si>
     <t>6,12%</t>
   </si>
   <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
   </si>
   <si>
     <t>8,76%</t>
   </si>
   <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
   </si>
   <si>
     <t>79,07%</t>
   </si>
   <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
   </si>
   <si>
     <t>88,33%</t>
   </si>
   <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si son capaces de prepararse la comida en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>Población según si son capaces de prepararse la comida en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>Población según si son capaces de prepararse la comida en 2023 (Tasa respuesta: 31,24%)</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>62,24%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
     <t>82,01%</t>
   </si>
   <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
   </si>
   <si>
     <t>7,41%</t>
   </si>
   <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si son capaces de prepararse la comida en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
+    <t>5,96%</t>
   </si>
   <si>
     <t>9,19%</t>
   </si>
   <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>Población según si son capaces de prepararse la comida en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>Población según si son capaces de prepararse la comida en 2023 (Tasa respuesta: 31,24%)</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>62,24%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
     <t>8,15%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
   </si>
   <si>
     <t>9,81%</t>
@@ -2244,7 +2247,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{837A5DFF-C0F5-4D90-B866-0F6AE0A5A290}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23C32FB9-098A-493D-AD69-691C37ED1A3A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2703,7 +2706,7 @@
         <v>184</v>
       </c>
       <c r="N10" s="7">
-        <v>180673</v>
+        <v>180672</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>62</v>
@@ -2754,7 +2757,7 @@
         <v>217</v>
       </c>
       <c r="N11" s="7">
-        <v>213826</v>
+        <v>213825</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -3004,10 +3007,10 @@
         <v>97</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -3016,13 +3019,13 @@
         <v>10587</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3198,7 +3201,7 @@
         <v>122</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -3207,13 +3210,13 @@
         <v>12026</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M20" s="7">
         <v>17</v>
@@ -3222,13 +3225,13 @@
         <v>16993</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3243,13 +3246,13 @@
         <v>10096</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="H21" s="7">
         <v>17</v>
@@ -3258,13 +3261,13 @@
         <v>18673</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M21" s="7">
         <v>29</v>
@@ -3273,13 +3276,13 @@
         <v>28769</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3294,13 +3297,13 @@
         <v>122154</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H22" s="7">
         <v>172</v>
@@ -3309,13 +3312,13 @@
         <v>178078</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M22" s="7">
         <v>310</v>
@@ -3324,13 +3327,13 @@
         <v>300234</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3398,13 +3401,13 @@
         <v>26160</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>145</v>
+        <v>54</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H24" s="7">
         <v>34</v>
@@ -3413,13 +3416,13 @@
         <v>36969</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M24" s="7">
         <v>62</v>
@@ -3428,13 +3431,13 @@
         <v>63129</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3449,13 +3452,13 @@
         <v>47117</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H25" s="7">
         <v>45</v>
@@ -3464,13 +3467,13 @@
         <v>48760</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M25" s="7">
         <v>95</v>
@@ -3479,13 +3482,13 @@
         <v>95877</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3500,13 +3503,13 @@
         <v>429189</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H26" s="7">
         <v>582</v>
@@ -3515,13 +3518,13 @@
         <v>591113</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M26" s="7">
         <v>1027</v>
@@ -3530,13 +3533,13 @@
         <v>1020303</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3592,7 +3595,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -3613,7 +3616,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7C1389-2AB7-44E2-86D1-DF7CBB158842}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{615697F5-D99B-4915-92B8-B29D4FC4431F}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3630,7 +3633,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3737,13 +3740,13 @@
         <v>1931</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -3752,13 +3755,13 @@
         <v>3476</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -3767,13 +3770,13 @@
         <v>5406</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>107</v>
+        <v>180</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3788,13 +3791,13 @@
         <v>1630</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -3803,13 +3806,13 @@
         <v>1053</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -3818,13 +3821,13 @@
         <v>2683</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3839,13 +3842,13 @@
         <v>17637</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H6" s="7">
         <v>19</v>
@@ -3854,13 +3857,13 @@
         <v>20666</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M6" s="7">
         <v>39</v>
@@ -3869,13 +3872,13 @@
         <v>38303</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3946,10 +3949,10 @@
         <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H8" s="7">
         <v>15</v>
@@ -3958,13 +3961,13 @@
         <v>15952</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M8" s="7">
         <v>22</v>
@@ -3973,13 +3976,13 @@
         <v>23191</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3994,13 +3997,13 @@
         <v>16049</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>14</v>
+        <v>208</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H9" s="7">
         <v>7</v>
@@ -4009,13 +4012,13 @@
         <v>7358</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M9" s="7">
         <v>21</v>
@@ -4024,13 +4027,13 @@
         <v>23407</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>211</v>
+        <v>97</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4045,13 +4048,13 @@
         <v>95062</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H10" s="7">
         <v>112</v>
@@ -4060,13 +4063,13 @@
         <v>118282</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>216</v>
+        <v>140</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>28</v>
+        <v>218</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M10" s="7">
         <v>196</v>
@@ -4075,13 +4078,13 @@
         <v>213344</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>220</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4149,13 +4152,13 @@
         <v>18558</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H12" s="7">
         <v>22</v>
@@ -4164,13 +4167,13 @@
         <v>25026</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M12" s="7">
         <v>39</v>
@@ -4179,13 +4182,13 @@
         <v>43585</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4200,13 +4203,13 @@
         <v>19675</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -4215,13 +4218,13 @@
         <v>24254</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M13" s="7">
         <v>38</v>
@@ -4230,7 +4233,7 @@
         <v>43929</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>236</v>
+        <v>110</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>237</v>
@@ -4373,10 +4376,10 @@
         <v>251</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
@@ -4385,13 +4388,13 @@
         <v>28969</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4409,10 +4412,10 @@
         <v>75</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="H17" s="7">
         <v>19</v>
@@ -4421,10 +4424,10 @@
         <v>20275</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>260</v>
@@ -4561,7 +4564,7 @@
         <v>13338</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>273</v>
@@ -4576,13 +4579,13 @@
         <v>15818</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>200</v>
+        <v>275</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M20" s="7">
         <v>27</v>
@@ -4591,13 +4594,13 @@
         <v>29156</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4612,13 +4615,13 @@
         <v>19671</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H21" s="7">
         <v>22</v>
@@ -4627,13 +4630,13 @@
         <v>23253</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M21" s="7">
         <v>39</v>
@@ -4642,13 +4645,13 @@
         <v>42923</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4663,13 +4666,13 @@
         <v>128604</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>163</v>
+        <v>292</v>
       </c>
       <c r="H22" s="7">
         <v>194</v>
@@ -4678,13 +4681,13 @@
         <v>204679</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M22" s="7">
         <v>312</v>
@@ -4693,13 +4696,13 @@
         <v>333283</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4767,13 +4770,13 @@
         <v>54948</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>147</v>
+        <v>13</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H24" s="7">
         <v>68</v>
@@ -4782,13 +4785,13 @@
         <v>75359</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>301</v>
+        <v>234</v>
       </c>
       <c r="M24" s="7">
         <v>117</v>
@@ -4797,7 +4800,7 @@
         <v>130308</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>302</v>
+        <v>71</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>303</v>
@@ -4836,10 +4839,10 @@
         <v>308</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="M25" s="7">
         <v>128</v>
@@ -4848,13 +4851,13 @@
         <v>141933</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4869,13 +4872,13 @@
         <v>438949</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="H26" s="7">
         <v>555</v>
@@ -4884,13 +4887,13 @@
         <v>591423</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="M26" s="7">
         <v>953</v>
@@ -4899,13 +4902,13 @@
         <v>1030372</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4961,7 +4964,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -4982,7 +4985,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{828CA84C-2AAA-4C89-9965-D649EC2890CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E941EFE-3263-46B9-B869-AC15CCBE600A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4999,7 +5002,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5106,10 +5109,10 @@
         <v>3562</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>325</v>
@@ -5157,13 +5160,13 @@
         <v>2721</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -5172,13 +5175,13 @@
         <v>3056</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -5187,13 +5190,13 @@
         <v>5777</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5208,13 +5211,13 @@
         <v>15405</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="H6" s="7">
         <v>16</v>
@@ -5223,13 +5226,13 @@
         <v>16023</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="M6" s="7">
         <v>33</v>
@@ -5238,13 +5241,13 @@
         <v>31428</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5312,13 +5315,13 @@
         <v>10453</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>352</v>
       </c>
       <c r="H8" s="7">
         <v>9</v>
@@ -5327,13 +5330,13 @@
         <v>10348</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>355</v>
+        <v>231</v>
       </c>
       <c r="M8" s="7">
         <v>21</v>
@@ -5342,13 +5345,13 @@
         <v>20801</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>255</v>
+        <v>353</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5363,13 +5366,13 @@
         <v>5908</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="H9" s="7">
         <v>12</v>
@@ -5378,13 +5381,13 @@
         <v>13855</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>361</v>
+        <v>311</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="M9" s="7">
         <v>19</v>
@@ -5393,13 +5396,13 @@
         <v>19763</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>364</v>
+        <v>178</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>365</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5414,13 +5417,13 @@
         <v>98685</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="H10" s="7">
         <v>114</v>
@@ -5429,28 +5432,28 @@
         <v>125748</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M10" s="7">
         <v>219</v>
       </c>
       <c r="N10" s="7">
-        <v>224433</v>
+        <v>224434</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>374</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5492,7 +5495,7 @@
         <v>259</v>
       </c>
       <c r="N11" s="7">
-        <v>264997</v>
+        <v>264998</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -5518,13 +5521,13 @@
         <v>12018</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -5533,13 +5536,13 @@
         <v>10642</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>373</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="M12" s="7">
         <v>21</v>
@@ -5548,13 +5551,13 @@
         <v>22660</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>130</v>
+        <v>377</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5569,13 +5572,13 @@
         <v>14307</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>41</v>
+        <v>354</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>176</v>
+        <v>380</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
@@ -5584,13 +5587,13 @@
         <v>19831</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="M13" s="7">
         <v>32</v>
@@ -5599,13 +5602,13 @@
         <v>34138</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5620,13 +5623,13 @@
         <v>138616</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="H14" s="7">
         <v>159</v>
@@ -5635,13 +5638,13 @@
         <v>188690</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>393</v>
       </c>
       <c r="M14" s="7">
         <v>304</v>
@@ -5650,13 +5653,13 @@
         <v>327306</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5724,13 +5727,13 @@
         <v>4335</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>397</v>
+        <v>335</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>399</v>
+        <v>330</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -5739,13 +5742,13 @@
         <v>10256</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>354</v>
+        <v>397</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -5754,13 +5757,13 @@
         <v>14591</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>354</v>
+        <v>400</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>402</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5775,13 +5778,13 @@
         <v>10962</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>405</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -5790,13 +5793,13 @@
         <v>11187</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>255</v>
+        <v>353</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>275</v>
+        <v>404</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="M17" s="7">
         <v>20</v>
@@ -5805,13 +5808,13 @@
         <v>22148</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5826,13 +5829,13 @@
         <v>99738</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>411</v>
+        <v>143</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="H18" s="7">
         <v>102</v>
@@ -5841,13 +5844,13 @@
         <v>121153</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="M18" s="7">
         <v>199</v>
@@ -5856,13 +5859,13 @@
         <v>220892</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>213</v>
+        <v>414</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5930,13 +5933,13 @@
         <v>4983</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>420</v>
       </c>
       <c r="H20" s="7">
         <v>10</v>
@@ -5945,13 +5948,13 @@
         <v>13884</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>203</v>
+        <v>419</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>422</v>
+        <v>358</v>
       </c>
       <c r="M20" s="7">
         <v>15</v>
@@ -5960,13 +5963,13 @@
         <v>18868</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>423</v>
+        <v>337</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5981,13 +5984,13 @@
         <v>13881</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>427</v>
+        <v>76</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>68</v>
+        <v>424</v>
       </c>
       <c r="H21" s="7">
         <v>16</v>
@@ -5996,13 +5999,13 @@
         <v>23211</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>429</v>
+        <v>134</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="M21" s="7">
         <v>32</v>
@@ -6011,13 +6014,13 @@
         <v>37093</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6032,13 +6035,13 @@
         <v>155754</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="H22" s="7">
         <v>172</v>
@@ -6047,13 +6050,13 @@
         <v>205685</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="M22" s="7">
         <v>341</v>
@@ -6062,13 +6065,13 @@
         <v>361440</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6136,13 +6139,13 @@
         <v>35351</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="H24" s="7">
         <v>37</v>
@@ -6151,13 +6154,13 @@
         <v>49491</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>53</v>
+        <v>442</v>
       </c>
       <c r="M24" s="7">
         <v>77</v>
@@ -6166,13 +6169,13 @@
         <v>84842</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>126</v>
+        <v>444</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6187,13 +6190,13 @@
         <v>47779</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>451</v>
+        <v>280</v>
       </c>
       <c r="H25" s="7">
         <v>55</v>
@@ -6202,13 +6205,13 @@
         <v>71140</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>107</v>
+        <v>253</v>
       </c>
       <c r="M25" s="7">
         <v>109</v>
@@ -6217,13 +6220,13 @@
         <v>118919</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6238,13 +6241,13 @@
         <v>508198</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>458</v>
+        <v>146</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="H26" s="7">
         <v>563</v>
@@ -6253,13 +6256,13 @@
         <v>657300</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>460</v>
+        <v>430</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="M26" s="7">
         <v>1096</v>
@@ -6268,13 +6271,13 @@
         <v>1165498</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6330,7 +6333,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -6351,7 +6354,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D65D4EB5-AFD0-475B-ACBC-967CD15E0AAA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23CCF90-15F9-46A8-9CDB-CBCFBB93DD29}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6368,7 +6371,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6475,13 +6478,13 @@
         <v>1897</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>468</v>
+        <v>211</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
@@ -6490,13 +6493,13 @@
         <v>4974</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
@@ -6505,13 +6508,13 @@
         <v>6871</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>211</v>
+        <v>467</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6526,13 +6529,13 @@
         <v>6804</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>476</v>
+        <v>138</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="H5" s="7">
         <v>20</v>
@@ -6541,13 +6544,13 @@
         <v>7815</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="M5" s="7">
         <v>30</v>
@@ -6556,13 +6559,13 @@
         <v>14618</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6577,13 +6580,13 @@
         <v>20963</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="H6" s="7">
         <v>79</v>
@@ -6592,13 +6595,13 @@
         <v>32632</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="M6" s="7">
         <v>112</v>
@@ -6607,13 +6610,13 @@
         <v>53595</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6681,13 +6684,13 @@
         <v>15414</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="H8" s="7">
         <v>41</v>
@@ -6696,13 +6699,13 @@
         <v>17643</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="M8" s="7">
         <v>68</v>
@@ -6711,13 +6714,13 @@
         <v>33056</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6732,13 +6735,13 @@
         <v>15155</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>501</v>
+        <v>208</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>229</v>
+        <v>494</v>
       </c>
       <c r="H9" s="7">
         <v>53</v>
@@ -6747,13 +6750,13 @@
         <v>22661</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="M9" s="7">
         <v>80</v>
@@ -6762,13 +6765,13 @@
         <v>37816</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6783,13 +6786,13 @@
         <v>94408</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="H10" s="7">
         <v>240</v>
@@ -6798,13 +6801,13 @@
         <v>106915</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="M10" s="7">
         <v>392</v>
@@ -6813,13 +6816,13 @@
         <v>201323</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6887,13 +6890,13 @@
         <v>13204</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>222</v>
+        <v>510</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="H12" s="7">
         <v>42</v>
@@ -6902,13 +6905,13 @@
         <v>23187</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>402</v>
+        <v>513</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="M12" s="7">
         <v>66</v>
@@ -6917,13 +6920,13 @@
         <v>36391</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>399</v>
+        <v>516</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>420</v>
+        <v>517</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>80</v>
+        <v>518</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6938,13 +6941,13 @@
         <v>17491</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>162</v>
+        <v>519</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>521</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>522</v>
       </c>
       <c r="H13" s="7">
         <v>65</v>
@@ -6953,13 +6956,13 @@
         <v>34954</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>524</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>525</v>
       </c>
       <c r="M13" s="7">
         <v>90</v>
@@ -6968,13 +6971,13 @@
         <v>52445</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>526</v>
+        <v>277</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6989,13 +6992,13 @@
         <v>143151</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>528</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>530</v>
       </c>
       <c r="H14" s="7">
         <v>342</v>
@@ -7004,13 +7007,13 @@
         <v>184755</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>531</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>533</v>
       </c>
       <c r="M14" s="7">
         <v>547</v>
@@ -7019,13 +7022,13 @@
         <v>327905</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>536</v>
+        <v>321</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7093,10 +7096,10 @@
         <v>7087</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>364</v>
+        <v>534</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>75</v>
@@ -7108,13 +7111,13 @@
         <v>13675</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>82</v>
+        <v>373</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
@@ -7123,13 +7126,13 @@
         <v>20762</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>541</v>
+        <v>42</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7144,13 +7147,13 @@
         <v>8654</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>124</v>
+        <v>541</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="H17" s="7">
         <v>24</v>
@@ -7159,13 +7162,13 @@
         <v>13804</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="M17" s="7">
         <v>35</v>
@@ -7174,13 +7177,13 @@
         <v>22459</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>547</v>
+        <v>359</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7195,13 +7198,13 @@
         <v>131494</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="H18" s="7">
         <v>246</v>
@@ -7210,13 +7213,13 @@
         <v>253635</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>441</v>
+        <v>550</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="M18" s="7">
         <v>418</v>
@@ -7225,13 +7228,13 @@
         <v>385128</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>92</v>
+        <v>553</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7299,13 +7302,13 @@
         <v>13883</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>556</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>557</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>558</v>
       </c>
       <c r="H20" s="7">
         <v>36</v>
@@ -7314,13 +7317,13 @@
         <v>24157</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>559</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>560</v>
       </c>
       <c r="M20" s="7">
         <v>58</v>
@@ -7329,13 +7332,13 @@
         <v>38040</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>561</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7350,13 +7353,13 @@
         <v>19288</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>71</v>
+        <v>562</v>
       </c>
       <c r="F21" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>563</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>564</v>
       </c>
       <c r="H21" s="7">
         <v>61</v>
@@ -7365,13 +7368,13 @@
         <v>37697</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="K21" s="7" t="s">
-        <v>566</v>
-      </c>
       <c r="L21" s="7" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="M21" s="7">
         <v>90</v>
@@ -7380,13 +7383,13 @@
         <v>56985</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>567</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7401,13 +7404,13 @@
         <v>185625</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>569</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>570</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>571</v>
       </c>
       <c r="H22" s="7">
         <v>427</v>
@@ -7416,13 +7419,13 @@
         <v>247699</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>573</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>574</v>
       </c>
       <c r="M22" s="7">
         <v>701</v>
@@ -7431,7 +7434,7 @@
         <v>433324</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>60</v>
+        <v>574</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>575</v>
@@ -7505,13 +7508,13 @@
         <v>51485</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>150</v>
+        <v>577</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>237</v>
+        <v>579</v>
       </c>
       <c r="H24" s="7">
         <v>150</v>
@@ -7520,13 +7523,13 @@
         <v>83635</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>579</v>
+        <v>205</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="M24" s="7">
         <v>236</v>
@@ -7535,13 +7538,13 @@
         <v>135121</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>255</v>
+        <v>353</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>450</v>
+        <v>385</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7556,13 +7559,13 @@
         <v>67392</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>255</v>
+        <v>353</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H25" s="7">
         <v>223</v>
@@ -7571,13 +7574,13 @@
         <v>116931</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="M25" s="7">
         <v>325</v>
@@ -7586,13 +7589,13 @@
         <v>184323</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7607,13 +7610,13 @@
         <v>575640</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H26" s="7">
         <v>1334</v>
@@ -7622,13 +7625,13 @@
         <v>825636</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="M26" s="7">
         <v>2170</v>
@@ -7637,13 +7640,13 @@
         <v>1401276</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7699,7 +7702,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5402-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5402-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{740F7229-E0E8-4359-A82C-0A102E7D6931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C25E9B5-D8BC-4593-ABA5-A5B4D0CE696A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{14BF6070-7A57-4CDF-ADB3-A60C3CAD269D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6DAAFD5B-318F-471A-993F-CE9284D71221}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="597">
   <si>
     <t>Población según si son capaces de prepararse la comida en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -86,13 +86,13 @@
     <t>8,22%</t>
   </si>
   <si>
-    <t>27,34%</t>
+    <t>27,68%</t>
   </si>
   <si>
     <t>3,94%</t>
   </si>
   <si>
-    <t>11,92%</t>
+    <t>11,89%</t>
   </si>
   <si>
     <t>Con alguna ayuda</t>
@@ -101,22 +101,22 @@
     <t>7,7%</t>
   </si>
   <si>
-    <t>23,83%</t>
+    <t>23,81%</t>
   </si>
   <si>
     <t>8,1%</t>
   </si>
   <si>
-    <t>24,18%</t>
+    <t>24,34%</t>
   </si>
   <si>
     <t>7,89%</t>
   </si>
   <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
   </si>
   <si>
     <t>Sin ayuda</t>
@@ -125,7 +125,7 @@
     <t>92,3%</t>
   </si>
   <si>
-    <t>76,17%</t>
+    <t>76,19%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -134,1708 +134,1702 @@
     <t>83,69%</t>
   </si>
   <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si son capaces de prepararse la comida en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>70,61%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>Población según si son capaces de prepararse la comida en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>Población según si son capaces de prepararse la comida en 2023 (Tasa respuesta: 31,24%)</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
     <t>67,5%</t>
   </si>
   <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>69,51%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
   </si>
   <si>
     <t>7,62%</t>
   </si>
   <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si son capaces de prepararse la comida en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>Población según si son capaces de prepararse la comida en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
   </si>
   <si>
     <t>5,24%</t>
   </si>
   <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>Población según si son capaces de prepararse la comida en 2023 (Tasa respuesta: 31,24%)</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>62,24%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
   </si>
   <si>
     <t>8,39%</t>
   </si>
   <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
+    <t>12,11%</t>
   </si>
   <si>
     <t>82,88%</t>
   </si>
   <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
   </si>
   <si>
     <t>80,46%</t>
   </si>
   <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
+    <t>77,21%</t>
   </si>
   <si>
     <t>81,44%</t>
   </si>
   <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
+    <t>85,62%</t>
   </si>
 </sst>
 </file>
@@ -2247,7 +2241,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23C32FB9-098A-493D-AD69-691C37ED1A3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7D615F1-2234-4674-B549-A407102A6FA4}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3007,10 +3001,10 @@
         <v>97</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -3019,13 +3013,13 @@
         <v>10587</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3040,13 +3034,13 @@
         <v>11653</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -3055,13 +3049,13 @@
         <v>8331</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M17" s="7">
         <v>19</v>
@@ -3070,13 +3064,13 @@
         <v>19985</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3091,13 +3085,13 @@
         <v>89800</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H18" s="7">
         <v>125</v>
@@ -3106,10 +3100,10 @@
         <v>119849</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>116</v>
@@ -3228,10 +3222,10 @@
         <v>127</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3246,13 +3240,13 @@
         <v>10096</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H21" s="7">
         <v>17</v>
@@ -3261,13 +3255,13 @@
         <v>18673</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M21" s="7">
         <v>29</v>
@@ -3276,13 +3270,13 @@
         <v>28769</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3297,13 +3291,13 @@
         <v>122154</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H22" s="7">
         <v>172</v>
@@ -3312,13 +3306,13 @@
         <v>178078</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M22" s="7">
         <v>310</v>
@@ -3327,13 +3321,13 @@
         <v>300234</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3401,13 +3395,13 @@
         <v>26160</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>54</v>
+        <v>147</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>73</v>
+        <v>148</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H24" s="7">
         <v>34</v>
@@ -3416,13 +3410,13 @@
         <v>36969</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M24" s="7">
         <v>62</v>
@@ -3431,13 +3425,13 @@
         <v>63129</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3452,10 +3446,10 @@
         <v>47117</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>156</v>
+        <v>48</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>157</v>
@@ -3485,10 +3479,10 @@
         <v>161</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3503,13 +3497,13 @@
         <v>429189</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>165</v>
-      </c>
       <c r="G26" s="7" t="s">
-        <v>166</v>
+        <v>59</v>
       </c>
       <c r="H26" s="7">
         <v>582</v>
@@ -3518,13 +3512,13 @@
         <v>591113</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M26" s="7">
         <v>1027</v>
@@ -3533,13 +3527,13 @@
         <v>1020303</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3595,7 +3589,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -3616,7 +3610,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{615697F5-D99B-4915-92B8-B29D4FC4431F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A894B7C-733A-4671-A3F3-26A8A8D795CD}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3633,7 +3627,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3740,13 +3734,13 @@
         <v>1931</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -3755,13 +3749,13 @@
         <v>3476</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -3770,13 +3764,13 @@
         <v>5406</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3791,13 +3785,13 @@
         <v>1630</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -3806,13 +3800,13 @@
         <v>1053</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -3821,13 +3815,13 @@
         <v>2683</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3842,13 +3836,13 @@
         <v>17637</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H6" s="7">
         <v>19</v>
@@ -3857,13 +3851,13 @@
         <v>20666</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M6" s="7">
         <v>39</v>
@@ -3872,13 +3866,13 @@
         <v>38303</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3949,10 +3943,10 @@
         <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H8" s="7">
         <v>15</v>
@@ -3961,13 +3955,13 @@
         <v>15952</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M8" s="7">
         <v>22</v>
@@ -3976,13 +3970,13 @@
         <v>23191</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3997,13 +3991,13 @@
         <v>16049</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>208</v>
+        <v>14</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H9" s="7">
         <v>7</v>
@@ -4012,13 +4006,13 @@
         <v>7358</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="M9" s="7">
         <v>21</v>
@@ -4027,13 +4021,13 @@
         <v>23407</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>97</v>
+        <v>211</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4048,13 +4042,13 @@
         <v>95062</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H10" s="7">
         <v>112</v>
@@ -4063,13 +4057,13 @@
         <v>118282</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>140</v>
+        <v>216</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M10" s="7">
         <v>196</v>
@@ -4078,13 +4072,13 @@
         <v>213344</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4203,13 +4197,13 @@
         <v>19675</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -4218,13 +4212,13 @@
         <v>24254</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M13" s="7">
         <v>38</v>
@@ -4233,7 +4227,7 @@
         <v>43929</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>110</v>
+        <v>236</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>237</v>
@@ -4376,10 +4370,10 @@
         <v>251</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>103</v>
+        <v>252</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
@@ -4388,13 +4382,13 @@
         <v>28969</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4412,10 +4406,10 @@
         <v>75</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H17" s="7">
         <v>19</v>
@@ -4424,13 +4418,13 @@
         <v>20275</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M17" s="7">
         <v>27</v>
@@ -4439,13 +4433,13 @@
         <v>28991</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4460,13 +4454,13 @@
         <v>81001</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H18" s="7">
         <v>97</v>
@@ -4475,13 +4469,13 @@
         <v>105657</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>269</v>
+        <v>91</v>
       </c>
       <c r="M18" s="7">
         <v>168</v>
@@ -4564,7 +4558,7 @@
         <v>13338</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>226</v>
+        <v>263</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>273</v>
@@ -4579,13 +4573,13 @@
         <v>15818</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="M20" s="7">
         <v>27</v>
@@ -4594,13 +4588,13 @@
         <v>29156</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4615,13 +4609,13 @@
         <v>19671</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="H21" s="7">
         <v>22</v>
@@ -4630,13 +4624,13 @@
         <v>23253</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="M21" s="7">
         <v>39</v>
@@ -4645,13 +4639,13 @@
         <v>42923</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4666,13 +4660,13 @@
         <v>128604</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>291</v>
-      </c>
       <c r="G22" s="7" t="s">
-        <v>292</v>
+        <v>163</v>
       </c>
       <c r="H22" s="7">
         <v>194</v>
@@ -4681,13 +4675,13 @@
         <v>204679</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="M22" s="7">
         <v>312</v>
@@ -4696,13 +4690,13 @@
         <v>333283</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4770,13 +4764,13 @@
         <v>54948</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="H24" s="7">
         <v>68</v>
@@ -4785,13 +4779,13 @@
         <v>75359</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M24" s="7">
         <v>117</v>
@@ -4800,13 +4794,13 @@
         <v>130308</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>71</v>
+        <v>303</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4821,13 +4815,13 @@
         <v>65740</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H25" s="7">
         <v>71</v>
@@ -4836,13 +4830,13 @@
         <v>76193</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>21</v>
+        <v>310</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M25" s="7">
         <v>128</v>
@@ -4851,13 +4845,13 @@
         <v>141933</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4872,13 +4866,13 @@
         <v>438949</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="H26" s="7">
         <v>555</v>
@@ -4887,13 +4881,13 @@
         <v>591423</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="M26" s="7">
         <v>953</v>
@@ -4902,13 +4896,13 @@
         <v>1030372</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4964,7 +4958,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -4985,7 +4979,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E941EFE-3263-46B9-B869-AC15CCBE600A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF5E8B8-F468-4CF5-A505-580A427E2B02}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5002,7 +4996,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5109,13 +5103,13 @@
         <v>3562</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -5124,13 +5118,13 @@
         <v>4360</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -5139,13 +5133,13 @@
         <v>7922</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5160,13 +5154,13 @@
         <v>2721</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>68</v>
+        <v>334</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -5175,13 +5169,13 @@
         <v>3056</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -5190,13 +5184,13 @@
         <v>5777</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5211,13 +5205,13 @@
         <v>15405</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="H6" s="7">
         <v>16</v>
@@ -5226,13 +5220,13 @@
         <v>16023</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="M6" s="7">
         <v>33</v>
@@ -5241,13 +5235,13 @@
         <v>31428</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>347</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5315,13 +5309,13 @@
         <v>10453</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="H8" s="7">
         <v>9</v>
@@ -5330,13 +5324,13 @@
         <v>10348</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>231</v>
+        <v>356</v>
       </c>
       <c r="M8" s="7">
         <v>21</v>
@@ -5345,13 +5339,13 @@
         <v>20801</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>353</v>
+        <v>255</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>354</v>
+        <v>133</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5366,13 +5360,13 @@
         <v>5908</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>356</v>
+        <v>110</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H9" s="7">
         <v>12</v>
@@ -5381,13 +5375,13 @@
         <v>13855</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>311</v>
+        <v>360</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>359</v>
+        <v>110</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M9" s="7">
         <v>19</v>
@@ -5396,13 +5390,13 @@
         <v>19763</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>178</v>
+        <v>363</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5417,13 +5411,13 @@
         <v>98685</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="H10" s="7">
         <v>114</v>
@@ -5432,28 +5426,28 @@
         <v>125748</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="M10" s="7">
         <v>219</v>
       </c>
       <c r="N10" s="7">
-        <v>224434</v>
+        <v>224433</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>139</v>
+        <v>372</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5495,7 +5489,7 @@
         <v>259</v>
       </c>
       <c r="N11" s="7">
-        <v>264998</v>
+        <v>264997</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -5521,13 +5515,13 @@
         <v>12018</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -5536,13 +5530,13 @@
         <v>10642</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="M12" s="7">
         <v>21</v>
@@ -5551,13 +5545,13 @@
         <v>22660</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5572,13 +5566,13 @@
         <v>14307</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>354</v>
+        <v>41</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>380</v>
+        <v>175</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
@@ -5587,13 +5581,13 @@
         <v>19831</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="M13" s="7">
         <v>32</v>
@@ -5602,13 +5596,13 @@
         <v>34138</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5623,13 +5617,13 @@
         <v>138616</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="H14" s="7">
         <v>159</v>
@@ -5638,13 +5632,13 @@
         <v>188690</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="M14" s="7">
         <v>304</v>
@@ -5653,13 +5647,13 @@
         <v>327306</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5727,13 +5721,13 @@
         <v>4335</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>335</v>
+        <v>398</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -5742,13 +5736,13 @@
         <v>10256</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>397</v>
+        <v>355</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -5757,13 +5751,13 @@
         <v>14591</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>400</v>
+        <v>355</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>229</v>
+        <v>403</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5778,13 +5772,13 @@
         <v>10962</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -5793,13 +5787,13 @@
         <v>11187</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>353</v>
+        <v>255</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>404</v>
+        <v>275</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="M17" s="7">
         <v>20</v>
@@ -5808,13 +5802,13 @@
         <v>22148</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>382</v>
+        <v>409</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5829,13 +5823,13 @@
         <v>99738</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>143</v>
+        <v>412</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="H18" s="7">
         <v>102</v>
@@ -5844,13 +5838,13 @@
         <v>121153</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="M18" s="7">
         <v>199</v>
@@ -5859,13 +5853,13 @@
         <v>220892</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>414</v>
+        <v>213</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5933,13 +5927,13 @@
         <v>4983</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="H20" s="7">
         <v>10</v>
@@ -5948,13 +5942,13 @@
         <v>13884</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>419</v>
+        <v>203</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>358</v>
+        <v>423</v>
       </c>
       <c r="M20" s="7">
         <v>15</v>
@@ -5963,13 +5957,13 @@
         <v>18868</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>337</v>
+        <v>424</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5984,13 +5978,13 @@
         <v>13881</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>76</v>
+        <v>428</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="H21" s="7">
         <v>16</v>
@@ -5999,13 +5993,13 @@
         <v>23211</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>134</v>
+        <v>431</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="M21" s="7">
         <v>32</v>
@@ -6014,13 +6008,13 @@
         <v>37093</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6035,13 +6029,13 @@
         <v>155754</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="H22" s="7">
         <v>172</v>
@@ -6050,13 +6044,13 @@
         <v>205685</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="M22" s="7">
         <v>341</v>
@@ -6065,13 +6059,13 @@
         <v>361440</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6139,13 +6133,13 @@
         <v>35351</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>440</v>
+        <v>96</v>
       </c>
       <c r="H24" s="7">
         <v>37</v>
@@ -6154,13 +6148,13 @@
         <v>49491</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>442</v>
+        <v>53</v>
       </c>
       <c r="M24" s="7">
         <v>77</v>
@@ -6169,13 +6163,13 @@
         <v>84842</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>444</v>
+        <v>127</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6190,13 +6184,13 @@
         <v>47779</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>280</v>
+        <v>452</v>
       </c>
       <c r="H25" s="7">
         <v>55</v>
@@ -6205,13 +6199,13 @@
         <v>71140</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>253</v>
+        <v>178</v>
       </c>
       <c r="M25" s="7">
         <v>109</v>
@@ -6220,13 +6214,13 @@
         <v>118919</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6241,13 +6235,13 @@
         <v>508198</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>146</v>
+        <v>459</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="H26" s="7">
         <v>563</v>
@@ -6256,13 +6250,13 @@
         <v>657300</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>430</v>
+        <v>461</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="M26" s="7">
         <v>1096</v>
@@ -6271,13 +6265,13 @@
         <v>1165498</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6333,7 +6327,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -6354,7 +6348,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23CCF90-15F9-46A8-9CDB-CBCFBB93DD29}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11B2061A-8E4A-4901-A302-A05A5B5C5855}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6371,7 +6365,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6478,13 +6472,13 @@
         <v>1897</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>211</v>
+        <v>469</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
@@ -6493,13 +6487,13 @@
         <v>4974</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
@@ -6508,13 +6502,13 @@
         <v>6871</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6529,13 +6523,13 @@
         <v>6804</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="H5" s="7">
         <v>20</v>
@@ -6544,13 +6538,13 @@
         <v>7815</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>472</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="M5" s="7">
         <v>30</v>
@@ -6559,13 +6553,13 @@
         <v>14618</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6580,13 +6574,13 @@
         <v>20963</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="H6" s="7">
         <v>79</v>
@@ -6595,13 +6589,13 @@
         <v>32632</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>482</v>
+        <v>365</v>
       </c>
       <c r="M6" s="7">
         <v>112</v>
@@ -6610,13 +6604,13 @@
         <v>53595</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6684,13 +6678,13 @@
         <v>15414</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="H8" s="7">
         <v>41</v>
@@ -6702,10 +6696,10 @@
         <v>222</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>133</v>
+        <v>494</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="M8" s="7">
         <v>68</v>
@@ -6714,13 +6708,13 @@
         <v>33056</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6735,13 +6729,13 @@
         <v>15155</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>208</v>
+        <v>500</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>494</v>
+        <v>253</v>
       </c>
       <c r="H9" s="7">
         <v>53</v>
@@ -6750,13 +6744,13 @@
         <v>22661</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="M9" s="7">
         <v>80</v>
@@ -6765,13 +6759,13 @@
         <v>37816</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6786,13 +6780,13 @@
         <v>94408</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="H10" s="7">
         <v>240</v>
@@ -6801,13 +6795,13 @@
         <v>106915</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="M10" s="7">
         <v>392</v>
@@ -6816,13 +6810,13 @@
         <v>201323</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6890,13 +6884,13 @@
         <v>13204</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>510</v>
+        <v>223</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="H12" s="7">
         <v>42</v>
@@ -6905,13 +6899,13 @@
         <v>23187</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>513</v>
+        <v>403</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>515</v>
+        <v>434</v>
       </c>
       <c r="M12" s="7">
         <v>66</v>
@@ -6920,13 +6914,13 @@
         <v>36391</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>516</v>
+        <v>400</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>517</v>
+        <v>78</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6941,13 +6935,13 @@
         <v>17491</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H13" s="7">
         <v>65</v>
@@ -6956,13 +6950,13 @@
         <v>34954</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M13" s="7">
         <v>90</v>
@@ -6971,13 +6965,13 @@
         <v>52445</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>277</v>
+        <v>527</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>525</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6992,13 +6986,13 @@
         <v>143151</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="H14" s="7">
         <v>342</v>
@@ -7007,13 +7001,13 @@
         <v>184755</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="M14" s="7">
         <v>547</v>
@@ -7022,13 +7016,13 @@
         <v>327905</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>321</v>
+        <v>536</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7096,13 +7090,13 @@
         <v>7087</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>534</v>
+        <v>363</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>75</v>
+        <v>382</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -7111,13 +7105,13 @@
         <v>13675</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
@@ -7126,13 +7120,13 @@
         <v>20762</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>42</v>
+        <v>541</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7147,13 +7141,13 @@
         <v>8654</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="H17" s="7">
         <v>24</v>
@@ -7165,10 +7159,10 @@
         <v>127</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="M17" s="7">
         <v>35</v>
@@ -7177,13 +7171,13 @@
         <v>22459</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>359</v>
+        <v>548</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>545</v>
+        <v>70</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7198,13 +7192,13 @@
         <v>131494</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="H18" s="7">
         <v>246</v>
@@ -7213,13 +7207,13 @@
         <v>253635</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>550</v>
+        <v>443</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>551</v>
+        <v>317</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M18" s="7">
         <v>418</v>
@@ -7228,13 +7222,13 @@
         <v>385128</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>142</v>
+        <v>555</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7302,13 +7296,13 @@
         <v>13883</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="H20" s="7">
         <v>36</v>
@@ -7317,13 +7311,13 @@
         <v>24157</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>149</v>
+        <v>561</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="M20" s="7">
         <v>58</v>
@@ -7335,10 +7329,10 @@
         <v>158</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>561</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7353,13 +7347,13 @@
         <v>19288</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>285</v>
+        <v>565</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="H21" s="7">
         <v>61</v>
@@ -7368,13 +7362,13 @@
         <v>37697</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>564</v>
+        <v>157</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>565</v>
+        <v>156</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>525</v>
+        <v>567</v>
       </c>
       <c r="M21" s="7">
         <v>90</v>
@@ -7383,13 +7377,13 @@
         <v>56985</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>516</v>
+        <v>494</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7404,13 +7398,13 @@
         <v>185625</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H22" s="7">
         <v>427</v>
@@ -7419,13 +7413,13 @@
         <v>247699</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>573</v>
+        <v>88</v>
       </c>
       <c r="M22" s="7">
         <v>701</v>
@@ -7434,7 +7428,7 @@
         <v>433324</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>574</v>
+        <v>60</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>575</v>
@@ -7508,13 +7502,13 @@
         <v>51485</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>577</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>578</v>
-      </c>
       <c r="G24" s="7" t="s">
-        <v>579</v>
+        <v>160</v>
       </c>
       <c r="H24" s="7">
         <v>150</v>
@@ -7523,13 +7517,13 @@
         <v>83635</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>580</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>581</v>
       </c>
       <c r="M24" s="7">
         <v>236</v>
@@ -7538,13 +7532,13 @@
         <v>135121</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>353</v>
+        <v>255</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>385</v>
+        <v>581</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>582</v>
+        <v>351</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7559,13 +7553,13 @@
         <v>67392</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>583</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>353</v>
-      </c>
       <c r="G25" s="7" t="s">
-        <v>584</v>
+        <v>178</v>
       </c>
       <c r="H25" s="7">
         <v>223</v>
@@ -7574,7 +7568,7 @@
         <v>116931</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>512</v>
+        <v>584</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>585</v>
@@ -7631,7 +7625,7 @@
         <v>594</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>595</v>
+        <v>112</v>
       </c>
       <c r="M26" s="7">
         <v>2170</v>
@@ -7640,13 +7634,13 @@
         <v>1401276</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>596</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>597</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7702,7 +7696,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
